--- a/salamantex_assignment_workjournal.xlsx
+++ b/salamantex_assignment_workjournal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Salamantex Assignment</t>
   </si>
@@ -101,16 +101,28 @@
     <t>writing rest tests</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.1</t>
+    <t>Setting up database</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>&gt; fehler/bugs, ein kleiner fehler und suche in config aber falscher decorator</t>
+  </si>
+  <si>
+    <t>mit querybuilder ärgern (normales sql tws soviel schöner)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="h:mm"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -160,12 +172,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -175,10 +202,25 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -189,16 +231,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -207,7 +269,201 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -215,6 +471,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:F25" totalsRowCount="1" headerRowDxfId="14" totalsRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A3:F24"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Task name" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Task description" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Estimated time (hrs)" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+      <totalsRowFormula>SUM(Tabelle1[Estimated time (hrs)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Actual time (hrs)" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+      <calculatedColumnFormula>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabelle1[Actual time (hrs)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="From" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="6" name="To" dataDxfId="0" totalsRowDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,246 +756,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D5" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="10">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D7" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D9" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D12" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D13" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="10">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D14" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D15" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D18" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D19" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D22" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D23" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="6">
-        <f>SUM(C4:C23)</f>
-        <v>22</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D24" s="10">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="11">
+        <f>SUM(Tabelle1[Estimated time (hrs)])</f>
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="D25" s="14">
+        <f>SUM(Tabelle1[Actual time (hrs)])</f>
+        <v>0.24652777777777785</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/salamantex_assignment_workjournal.xlsx
+++ b/salamantex_assignment_workjournal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Salamantex Assignment</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Implementing transaction processing</t>
   </si>
   <si>
-    <t>Creating repositories</t>
-  </si>
-  <si>
     <t>Creating endpoints</t>
   </si>
   <si>
@@ -89,18 +86,6 @@
     <t>Acceptance testing</t>
   </si>
   <si>
-    <t>Tasks between</t>
-  </si>
-  <si>
-    <t>writing unit tests</t>
-  </si>
-  <si>
-    <t>testing api with postman</t>
-  </si>
-  <si>
-    <t>writing rest tests</t>
-  </si>
-  <si>
     <t>Setting up database</t>
   </si>
   <si>
@@ -114,6 +99,27 @@
   </si>
   <si>
     <t>mit querybuilder ärgern (normales sql tws soviel schöner)</t>
+  </si>
+  <si>
+    <t>Creating domain logic</t>
+  </si>
+  <si>
+    <t>Implementing proper error handling / status codes</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>doch umgestellt auf two transaction histories</t>
+  </si>
+  <si>
+    <t>Creating repositories/queries</t>
+  </si>
+  <si>
+    <t>Restzeit</t>
+  </si>
+  <si>
+    <t>Abweichung</t>
   </si>
 </sst>
 </file>
@@ -121,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,18 +169,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF305496"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -226,52 +269,90 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -279,7 +360,75 @@
         <left style="thin">
           <color auto="1"/>
         </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
           <color auto="1"/>
         </right>
         <top style="medium">
@@ -294,97 +443,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="h:mm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="h:mm"/>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -394,10 +461,19 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -417,19 +493,10 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -474,20 +541,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:F25" totalsRowCount="1" headerRowDxfId="14" totalsRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="A3:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:F32" totalsRowCount="1" headerRowDxfId="14" totalsRowDxfId="11" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A3:F31"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Task name" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Task description" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Estimated time (hrs)" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="1" name="Task name" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Task description" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Estimated time (hrs)" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="3">
       <totalsRowFormula>SUM(Tabelle1[Estimated time (hrs)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Actual time (hrs)" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="4" name="Actual time (hrs)" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2">
       <calculatedColumnFormula>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabelle1[Actual time (hrs)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="From" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="6" name="To" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="From" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="To" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -756,18 +823,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -777,380 +846,562 @@
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="13">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D7" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D8" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.62847222222222221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.73958333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D15" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.76041666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="9">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D18" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D19" s="20">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="23">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D21" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="13">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D22" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D23" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D24" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D25" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="10">
+      <c r="B26" s="3"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="13">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D27" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.2499999999999944E-2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="16">
+        <f>SUM(C15:C31)</f>
+        <v>0.63194444444444431</v>
+      </c>
+      <c r="K28" s="16">
+        <f>Tabelle1[[#Totals],[Estimated time (hrs)]]-I28</f>
+        <v>0.38194444444444453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="16">
+        <f>Tabelle1[[#Totals],[Actual time (hrs)]]-K28</f>
+        <v>0.71527777777777757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D4" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.89583333333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D5" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="10">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D6" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="10">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="D7" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.36458333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="10">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D8" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="10">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D9" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>8.3333333333333315E-2</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D10" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="10">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D11" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D12" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="10">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D13" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="10">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="D14" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="10">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D15" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D16" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="10">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D17" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="10">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D18" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="10">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D19" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="10">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D22" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="10">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D23" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="10">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D24" s="10">
-        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="11">
+      <c r="D30" s="13">
+        <f>(Tabelle1[[#This Row],[To]]-Tabelle1[[#This Row],[From]])</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="14">
         <f>SUM(Tabelle1[Estimated time (hrs)])</f>
-        <v>0.93055555555555547</v>
-      </c>
-      <c r="D25" s="14">
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="D32" s="15">
         <f>SUM(Tabelle1[Actual time (hrs)])</f>
-        <v>0.24652777777777785</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="2"/>
+        <v>1.0972222222222221</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/salamantex_assignment_workjournal.xlsx
+++ b/salamantex_assignment_workjournal.xlsx
@@ -826,7 +826,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
